--- a/matlab/validation_examples/test_profile_flat_land_5km.xlsx
+++ b/matlab/validation_examples/test_profile_flat_land_5km.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80824876\Meetings\ITUR\SG3\P.452\matlab\v2.15.02.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80824876\Meetings\ITUR\SG3\P.452\matlab\P452_v17.0\create_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22272" windowHeight="7968" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="16575" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Path profile" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Path profile parameters" sheetId="3" r:id="rId3"/>
     <sheet name="Transmission losses" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -173,37 +173,37 @@
     <t>Line of Sight</t>
   </si>
   <si>
-    <t>Lb_ref</t>
+    <t>Lb</t>
   </si>
   <si>
-    <t>Lbfsg_ref</t>
+    <t>Lbfsg</t>
   </si>
   <si>
-    <t>Lb0p_ref</t>
+    <t>Lb0p</t>
   </si>
   <si>
-    <t>Lb0b_ref</t>
+    <t>Lb0b</t>
   </si>
   <si>
-    <t>Ldsph_ref</t>
+    <t>Ldsph</t>
   </si>
   <si>
-    <t>Ld50_ref</t>
+    <t>Ld50</t>
   </si>
   <si>
-    <t>Ldp_ref</t>
+    <t>Ldp</t>
   </si>
   <si>
-    <t>Lbs_ref</t>
+    <t>Lbs</t>
   </si>
   <si>
-    <t>Lba_ref</t>
+    <t>Lba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -297,9 +297,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -332,9 +332,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -518,9 +518,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.01</v>
       </c>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.02</v>
       </c>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.03</v>
       </c>
@@ -575,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.04</v>
       </c>
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.05</v>
       </c>
@@ -597,7 +597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.06</v>
       </c>
@@ -608,7 +608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.08</v>
       </c>
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.09</v>
       </c>
@@ -641,7 +641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.1</v>
       </c>
@@ -652,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.11</v>
       </c>
@@ -663,7 +663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.12</v>
       </c>
@@ -674,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.13</v>
       </c>
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.14000000000000001</v>
       </c>
@@ -696,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.15</v>
       </c>
@@ -707,7 +707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.16</v>
       </c>
@@ -718,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.17</v>
       </c>
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.18</v>
       </c>
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.19</v>
       </c>
@@ -751,7 +751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.2</v>
       </c>
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.21</v>
       </c>
@@ -773,7 +773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.22</v>
       </c>
@@ -784,7 +784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.23</v>
       </c>
@@ -795,7 +795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.24</v>
       </c>
@@ -806,7 +806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.25</v>
       </c>
@@ -817,7 +817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.26</v>
       </c>
@@ -828,7 +828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.27</v>
       </c>
@@ -839,7 +839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.28000000000000003</v>
       </c>
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.28999999999999998</v>
       </c>
@@ -861,7 +861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.3</v>
       </c>
@@ -872,7 +872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.31</v>
       </c>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.32</v>
       </c>
@@ -894,7 +894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.33</v>
       </c>
@@ -905,7 +905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.34</v>
       </c>
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.35</v>
       </c>
@@ -927,7 +927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.36</v>
       </c>
@@ -938,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.37</v>
       </c>
@@ -949,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.38</v>
       </c>
@@ -960,7 +960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.39</v>
       </c>
@@ -971,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.4</v>
       </c>
@@ -982,7 +982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.41</v>
       </c>
@@ -993,7 +993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.42</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.43</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.44</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.45</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.46</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.47</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.48</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.49</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.5</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.51</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.52</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.53</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.54</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.55000000000000004</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.56000000000000005</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.56999999999999995</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.57999999999999996</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.59</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.6</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.61</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.62</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.63</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.64</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.65</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.66</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.67</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.68</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.69</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.7</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.71</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.72</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.73</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.74</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.75</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.76</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.77</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.78</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.79</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.8</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.81</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.82</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.83</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.84</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.85</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.86</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.87</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.88</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.89</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.9</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.91</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.92</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.93</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.94</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.95</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.96</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.97</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.98</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.99</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1.01</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1.02</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1.03</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1.04</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1.05</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1.06</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1.07</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1.08</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1.0900000000000001</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1.1000000000000001</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1.1100000000000001</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1.1200000000000001</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1.1299999999999999</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1.1399999999999999</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1.1499999999999999</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1.1599999999999999</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1.17</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1.18</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1.19</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1.2</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1.21</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1.22</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1.23</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1.24</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1.25</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1.26</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1.27</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1.28</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1.29</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1.3</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1.31</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1.32</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1.33</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1.34</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1.35</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1.36</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1.37</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1.38</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1.39</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1.4</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1.41</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1.42</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1.43</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1.44</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1.45</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1.46</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1.47</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1.48</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1.49</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1.5</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1.51</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1.52</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1.53</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1.54</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1.55</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1.56</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1.57</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1.58</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1.59</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1.6</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1.61</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1.62</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1.63</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1.64</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1.65</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1.66</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1.67</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1.68</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1.69</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1.7</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1.71</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1.72</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1.73</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1.74</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1.75</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1.76</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1.77</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1.78</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1.79</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1.8</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1.81</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1.82</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1.83</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1.84</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1.85</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1.86</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1.87</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1.88</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1.89</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1.9</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1.91</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1.92</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1.93</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1.94</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1.95</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1.96</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1.97</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1.98</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1.99</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2.0099999999999998</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2.02</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2.0299999999999998</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2.04</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2.0499999999999998</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2.06</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2.0699999999999998</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2.08</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2.09</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2.1</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2.11</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2.12</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2.13</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2.14</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2.15</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2.16</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2.17</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2.1800000000000002</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2.19</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2.2000000000000002</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2.21</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2.2200000000000002</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2.23</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2.2400000000000002</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2.25</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2.2599999999999998</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2.27</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2.2799999999999998</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2.29</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2.2999999999999998</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2.31</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2.3199999999999998</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2.33</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2.34</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2.35</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2.36</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2.37</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2.38</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2.39</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2.4</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2.41</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2.42</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2.4300000000000002</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2.44</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2.4500000000000002</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2.46</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2.4700000000000002</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2.48</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2.4900000000000002</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2.5</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2.5099999999999998</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2.52</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2.5299999999999998</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2.54</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2.5499999999999998</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2.56</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2.57</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2.58</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2.59</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2.6</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2.61</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2.62</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2.63</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2.64</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2.65</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2.66</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2.67</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2.68</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2.69</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2.7</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2.71</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2.72</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2.73</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2.74</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2.75</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2.76</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2.77</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2.78</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2.79</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2.8</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2.81</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2.82</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2.83</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2.84</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2.85</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2.86</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2.87</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2.88</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2.89</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2.9</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2.91</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2.92</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2.93</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2.94</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2.95</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2.96</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2.97</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2.98</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2.99</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>3</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>3.01</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>3.02</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>3.03</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>3.04</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>3.05</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>3.06</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>3.07</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>3.08</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>3.09</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>3.1</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>3.11</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>3.12</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>3.13</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>3.14</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>3.15</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>3.16</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>3.17</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>3.18</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>3.19</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>3.2</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>3.21</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>3.22</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>3.23</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>3.24</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>3.25</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>3.26</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>3.27</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>3.28</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>3.29</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>3.3</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>3.31</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>3.32</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>3.33</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>3.34</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>3.35</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>3.36</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>3.37</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>3.38</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>3.39</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>3.4</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>3.41</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>3.42</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>3.43</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>3.44</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>3.45</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>3.46</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>3.47</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>3.48</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>3.49</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>3.5</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>3.51</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>3.52</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>3.53</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>3.54</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>3.55</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>3.56</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>3.57</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>3.58</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>3.59</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>3.6</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>3.61</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>3.62</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>3.63</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>3.64</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>3.65</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>3.66</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>3.67</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>3.68</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>3.69</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>3.7</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>3.71</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>3.72</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>3.73</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>3.74</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>3.75</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>3.76</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>3.77</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>3.78</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>3.79</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>3.8</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>3.81</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>3.82</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>3.83</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>3.84</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>3.85</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>3.86</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>3.87</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>3.88</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>3.89</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>3.9</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>3.91</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>3.92</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>3.93</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>3.94</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>3.95</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>3.96</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>3.97</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>3.98</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>3.99</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>4</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>4.01</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>4.0199999999999996</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>4.03</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>4.04</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>4.05</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>4.0599999999999996</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>4.07</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>4.08</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>4.09</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>4.0999999999999996</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>4.1100000000000003</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>4.12</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>4.13</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>4.1399999999999997</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>4.1500000000000004</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>4.16</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>4.17</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>4.18</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>4.1900000000000004</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>4.2</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>4.21</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>4.22</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>4.2300000000000004</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>4.24</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>4.25</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>4.26</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>4.2699999999999996</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>4.28</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>4.29</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>4.3</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>4.3099999999999996</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>4.32</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>4.33</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>4.34</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>4.3499999999999996</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>4.3600000000000003</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>4.37</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>4.38</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>4.3899999999999997</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>4.4000000000000004</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>4.41</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>4.42</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>4.43</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>4.4400000000000004</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>4.45</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>4.46</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>4.47</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>4.4800000000000004</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>4.49</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>4.5</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>4.51</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>4.5199999999999996</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>4.53</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>4.54</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>4.55</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>4.5599999999999996</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>4.57</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>4.58</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>4.59</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>4.5999999999999996</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>4.6100000000000003</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>4.62</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>4.63</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>4.6399999999999997</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>4.6500000000000004</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>4.66</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>4.67</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>4.68</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>4.6900000000000004</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>4.7</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>4.71</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>4.72</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>4.7300000000000004</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>4.74</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>4.75</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>4.76</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>4.7699999999999996</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>4.78</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>4.79</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>4.8</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>4.8099999999999996</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>4.82</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>4.83</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>4.84</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>4.8499999999999996</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>4.8600000000000003</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>4.87</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>4.88</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>4.8899999999999997</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>4.9000000000000004</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>4.91</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>4.92</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>4.93</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>4.9400000000000004</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>4.95</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>4.96</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>4.97</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>4.9800000000000004</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>4.99</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>5</v>
       </c>
@@ -6053,9 +6053,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>50.73</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -6234,9 +6234,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>9617.7596153846207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>-0.259935790004096</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>-0.259935790004096</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>1.1708654490405501E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>7.0054077878224303</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -6407,9 +6407,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6452,16 +6452,16 @@
         <v>49</v>
       </c>
       <c r="C3">
-        <v>112.519794655724</v>
+        <v>112.41979465573594</v>
       </c>
       <c r="D3">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E3">
-        <v>112.525610811074</v>
+        <v>112.42561081107375</v>
       </c>
       <c r="F3">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -6473,13 +6473,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>162.17372108593599</v>
+        <v>162.17372108593597</v>
       </c>
       <c r="K3">
-        <v>184.14125392664701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>184.14125392664658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -6487,34 +6487,34 @@
         <v>49</v>
       </c>
       <c r="C4">
-        <v>106.46509928678</v>
+        <v>106.36511536937499</v>
       </c>
       <c r="D4">
-        <v>86.480411274888695</v>
+        <v>86.380411274888715</v>
       </c>
       <c r="E4">
-        <v>86.471435372345297</v>
+        <v>86.371435372345303</v>
       </c>
       <c r="F4">
-        <v>85.607226036185807</v>
+        <v>85.507226036185784</v>
       </c>
       <c r="G4">
-        <v>19.999875826781299</v>
+        <v>19.999875826781263</v>
       </c>
       <c r="H4">
-        <v>19.999875826781299</v>
+        <v>19.999875826781263</v>
       </c>
       <c r="I4">
-        <v>19.9976092227494</v>
+        <v>19.997609222749418</v>
       </c>
       <c r="J4">
-        <v>125.38351862150699</v>
+        <v>125.38351862150722</v>
       </c>
       <c r="K4">
-        <v>190.687078483438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>190.68707848343757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.15</v>
       </c>
@@ -6522,34 +6522,34 @@
         <v>49</v>
       </c>
       <c r="C5">
-        <v>106.69088422488301</v>
+        <v>106.59088566110371</v>
       </c>
       <c r="D5">
-        <v>90.003424327207597</v>
+        <v>89.903424327207645</v>
       </c>
       <c r="E5">
-        <v>89.994448424664199</v>
+        <v>89.894448424664233</v>
       </c>
       <c r="F5">
-        <v>89.130239088504695</v>
+        <v>89.030239088504715</v>
       </c>
       <c r="G5">
-        <v>16.702327028995601</v>
+        <v>16.702327028995583</v>
       </c>
       <c r="H5">
-        <v>16.702327028995601</v>
+        <v>16.702327028995583</v>
       </c>
       <c r="I5">
         <v>16.699779105007298</v>
       </c>
       <c r="J5">
-        <v>130.85497138931501</v>
+        <v>130.85497138931527</v>
       </c>
       <c r="K5">
-        <v>188.516341536135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>188.51634153613469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.22500000000000001</v>
       </c>
@@ -6557,34 +6557,34 @@
         <v>49</v>
       </c>
       <c r="C6">
-        <v>107.00404364250799</v>
+        <v>106.90404378583482</v>
       </c>
       <c r="D6">
-        <v>93.527652075991298</v>
+        <v>93.427652075991332</v>
       </c>
       <c r="E6">
-        <v>93.518676173447901</v>
+        <v>93.418676173447921</v>
       </c>
       <c r="F6">
-        <v>92.654466837288396</v>
+        <v>92.554466837288402</v>
       </c>
       <c r="G6">
-        <v>13.4912354035894</v>
+        <v>13.491235403589446</v>
       </c>
       <c r="H6">
-        <v>13.4912354035894</v>
+        <v>13.491235403589446</v>
       </c>
       <c r="I6">
-        <v>13.4883668125141</v>
+        <v>13.48836681251411</v>
       </c>
       <c r="J6">
-        <v>136.172598717862</v>
+        <v>136.1725987178618</v>
       </c>
       <c r="K6">
-        <v>184.36713178535101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>184.36713178535132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.33750000000000002</v>
       </c>
@@ -6592,34 +6592,34 @@
         <v>49</v>
       </c>
       <c r="C7">
-        <v>107.36693954580301</v>
+        <v>107.26693956150714</v>
       </c>
       <c r="D7">
-        <v>97.053821732493901</v>
+        <v>96.953821732493878</v>
       </c>
       <c r="E7">
-        <v>97.044845829950503</v>
+        <v>96.944845829950467</v>
       </c>
       <c r="F7">
-        <v>96.1806364937909</v>
+        <v>96.080636493790948</v>
       </c>
       <c r="G7">
-        <v>10.327965052483099</v>
+        <v>10.327965052483121</v>
       </c>
       <c r="H7">
-        <v>10.327965052483099</v>
+        <v>10.327965052483121</v>
       </c>
       <c r="I7">
-        <v>10.3247282454822</v>
+        <v>10.324728245482195</v>
       </c>
       <c r="J7">
-        <v>141.33711921825901</v>
+        <v>141.33711921825895</v>
       </c>
       <c r="K7">
-        <v>178.33431706734899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>178.33431706734945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.50624999999999998</v>
       </c>
@@ -6627,34 +6627,34 @@
         <v>49</v>
       </c>
       <c r="C8">
-        <v>107.73881270699501</v>
+        <v>107.63881270884897</v>
       </c>
       <c r="D8">
-        <v>100.582120837703</v>
+        <v>100.48212083770311</v>
       </c>
       <c r="E8">
-        <v>100.57314493516</v>
+        <v>100.4731449351597</v>
       </c>
       <c r="F8">
-        <v>99.708935599000199</v>
+        <v>99.608935599000176</v>
       </c>
       <c r="G8">
-        <v>7.1715460787624501</v>
+        <v>7.1715460787624545</v>
       </c>
       <c r="H8">
-        <v>7.1715460787624501</v>
+        <v>7.1715460787624545</v>
       </c>
       <c r="I8">
-        <v>7.1678796451557902</v>
+        <v>7.1678796451557929</v>
       </c>
       <c r="J8">
-        <v>146.348696369598</v>
+        <v>146.3486963695976</v>
       </c>
       <c r="K8">
         <v>172.18878804812601</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.75937500000000002</v>
       </c>
@@ -6662,34 +6662,34 @@
         <v>49</v>
       </c>
       <c r="C9">
-        <v>108.06218921036</v>
+        <v>107.96218921058957</v>
       </c>
       <c r="D9">
-        <v>104.111286809775</v>
+        <v>104.01128680977529</v>
       </c>
       <c r="E9">
-        <v>104.102310907232</v>
+        <v>104.00231090723187</v>
       </c>
       <c r="F9">
-        <v>103.23810157107199</v>
+        <v>103.13810157107235</v>
       </c>
       <c r="G9">
-        <v>3.96576534470812</v>
+        <v>3.9657653447081223</v>
       </c>
       <c r="H9">
-        <v>3.96576534470812</v>
+        <v>3.9657653447081223</v>
       </c>
       <c r="I9">
-        <v>3.9615811685207398</v>
+        <v>3.9615811685207447</v>
       </c>
       <c r="J9">
-        <v>151.20603725221699</v>
+        <v>151.20603725221702</v>
       </c>
       <c r="K9">
-        <v>175.717954020848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>175.7179540208476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.1390625000000001</v>
       </c>
@@ -6697,16 +6697,16 @@
         <v>49</v>
       </c>
       <c r="C10">
-        <v>108.221637041921</v>
+        <v>108.12163704194913</v>
       </c>
       <c r="D10">
-        <v>107.639328136893</v>
+        <v>107.53932813689347</v>
       </c>
       <c r="E10">
-        <v>107.63035223435</v>
+        <v>107.53035223435006</v>
       </c>
       <c r="F10">
-        <v>106.76614289819101</v>
+        <v>106.66614289819054</v>
       </c>
       <c r="G10">
         <v>0.59718214895476696</v>
@@ -6715,16 +6715,16 @@
         <v>0.59718214895476696</v>
       </c>
       <c r="I10">
-        <v>0.59238970419944803</v>
+        <v>0.59238970419944814</v>
       </c>
       <c r="J10">
-        <v>155.907130158158</v>
+        <v>155.90713015815783</v>
       </c>
       <c r="K10">
-        <v>179.24599534870899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>179.24599534870916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.7085937499999999</v>
       </c>
@@ -6732,16 +6732,16 @@
         <v>49</v>
       </c>
       <c r="C11">
-        <v>111.15067758683701</v>
+        <v>111.05067758685023</v>
       </c>
       <c r="D11">
-        <v>111.16546964477401</v>
+        <v>111.06546964477444</v>
       </c>
       <c r="E11">
-        <v>111.15649374223101</v>
+        <v>111.05649374223103</v>
       </c>
       <c r="F11">
-        <v>110.292284406072</v>
+        <v>110.19228440607151</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -6753,13 +6753,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>160.451146403709</v>
+        <v>160.4511464037094</v>
       </c>
       <c r="K11">
-        <v>182.77213685744101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>182.7721368574411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2.5628906250000001</v>
       </c>
@@ -6767,16 +6767,16 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>114.675663150936</v>
+        <v>114.57566315094466</v>
       </c>
       <c r="D12">
-        <v>114.69045520877501</v>
+        <v>114.59045520877507</v>
       </c>
       <c r="E12">
-        <v>114.68147930623201</v>
+        <v>114.58147930623166</v>
       </c>
       <c r="F12">
-        <v>113.817269970072</v>
+        <v>113.71726997007214</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -6788,13 +6788,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>164.838652081828</v>
+        <v>164.83865208182829</v>
       </c>
       <c r="K12">
-        <v>186.29712242241601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>186.29712242241581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.8443359374999999</v>
       </c>
@@ -6802,16 +6802,16 @@
         <v>49</v>
       </c>
       <c r="C13">
-        <v>118.20101896692501</v>
+        <v>118.10101896693192</v>
       </c>
       <c r="D13">
-        <v>118.215811024709</v>
+        <v>118.11581102470888</v>
       </c>
       <c r="E13">
-        <v>118.206835122165</v>
+        <v>118.10683512216546</v>
       </c>
       <c r="F13">
-        <v>117.342625786006</v>
+        <v>117.24262578600595</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -6823,13 +6823,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>169.07073370336801</v>
+        <v>169.07073370336775</v>
       </c>
       <c r="K13">
-        <v>189.822478239465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>189.82247823946474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5.7665039062499996</v>
       </c>
@@ -6837,16 +6837,16 @@
         <v>49</v>
       </c>
       <c r="C14">
-        <v>121.729202616422</v>
+        <v>121.62920261642697</v>
       </c>
       <c r="D14">
-        <v>121.743994674173</v>
+        <v>121.64399467417286</v>
       </c>
       <c r="E14">
-        <v>121.735018771629</v>
+        <v>121.63501877162945</v>
       </c>
       <c r="F14">
-        <v>120.87080943546999</v>
+        <v>120.77080943546993</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -6858,13 +6858,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>173.14878844447901</v>
+        <v>173.14878844447938</v>
       </c>
       <c r="K14">
-        <v>193.350661890205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>193.35066189020517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8.6497558593750004</v>
       </c>
@@ -6872,16 +6872,16 @@
         <v>49</v>
       </c>
       <c r="C15">
-        <v>125.265734413665</v>
+        <v>125.16573441366965</v>
       </c>
       <c r="D15">
-        <v>125.28052647139801</v>
+        <v>125.1805264713978</v>
       </c>
       <c r="E15">
-        <v>125.271550568854</v>
+        <v>125.17155056885439</v>
       </c>
       <c r="F15">
-        <v>124.407341232695</v>
+        <v>124.30734123269487</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -6893,13 +6893,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>177.075452304067</v>
+        <v>177.07545230406663</v>
       </c>
       <c r="K15">
-        <v>196.88719368889099</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>196.88719368889127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12.9746337890625</v>
       </c>
@@ -6907,16 +6907,16 @@
         <v>49</v>
       </c>
       <c r="C16">
-        <v>128.830989139433</v>
+        <v>128.7309891394367</v>
       </c>
       <c r="D16">
-        <v>128.84578119715599</v>
+        <v>128.74578119715622</v>
       </c>
       <c r="E16">
-        <v>128.83680529461299</v>
+        <v>128.73680529461279</v>
       </c>
       <c r="F16">
-        <v>127.972595958453</v>
+        <v>127.87259595845329</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -6928,13 +6928,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>180.85960850801899</v>
+        <v>180.85960850801879</v>
       </c>
       <c r="K16">
-        <v>200.452448416322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>200.45244841632231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>19.461950683593798</v>
       </c>
@@ -6942,16 +6942,16 @@
         <v>49</v>
       </c>
       <c r="C17">
-        <v>132.70203543596801</v>
+        <v>132.60203543597191</v>
       </c>
       <c r="D17">
-        <v>132.716827493696</v>
+        <v>132.61682749369587</v>
       </c>
       <c r="E17">
-        <v>132.70785159115201</v>
+        <v>132.60785159115244</v>
       </c>
       <c r="F17">
-        <v>131.843642254993</v>
+        <v>131.74364225499295</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -6963,13 +6963,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>184.615272523832</v>
+        <v>184.61527252383189</v>
       </c>
       <c r="K17">
-        <v>204.32349471477701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>204.32349471477659</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>29.192926025390602</v>
       </c>
@@ -6977,16 +6977,16 @@
         <v>49</v>
       </c>
       <c r="C18">
-        <v>136.24906251082501</v>
+        <v>136.14906251082954</v>
       </c>
       <c r="D18">
-        <v>136.26385456855601</v>
+        <v>136.16385456855599</v>
       </c>
       <c r="E18">
-        <v>136.25487866601301</v>
+        <v>136.15487866601256</v>
       </c>
       <c r="F18">
-        <v>135.39066932985301</v>
+        <v>135.29066932985307</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -6998,13 +6998,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>188.09978156260999</v>
+        <v>188.09978156261025</v>
       </c>
       <c r="K18">
-        <v>207.870521791828</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>207.87052179182848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>43.789389038085901</v>
       </c>
@@ -7012,16 +7012,16 @@
         <v>49</v>
       </c>
       <c r="C19">
-        <v>140.158001524615</v>
+        <v>140.05800152461978</v>
       </c>
       <c r="D19">
-        <v>140.172793582358</v>
+        <v>140.07279358235817</v>
       </c>
       <c r="E19">
-        <v>140.163817679815</v>
+        <v>140.06381767981475</v>
       </c>
       <c r="F19">
-        <v>139.299608343655</v>
+        <v>139.19960834365526</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -7033,13 +7033,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>191.733742220897</v>
+        <v>191.73374222089734</v>
       </c>
       <c r="K19">
-        <v>211.77946080813999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>211.77946080813959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>50</v>
       </c>
@@ -7047,16 +7047,16 @@
         <v>49</v>
       </c>
       <c r="C20">
-        <v>142.38533941728201</v>
+        <v>142.28533941728688</v>
       </c>
       <c r="D20">
-        <v>142.40013147503399</v>
+        <v>142.30013147503411</v>
       </c>
       <c r="E20">
-        <v>142.39115557249099</v>
+        <v>142.29115557249068</v>
       </c>
       <c r="F20">
-        <v>141.52694623633101</v>
+        <v>141.42694623633119</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -7068,13 +7068,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>193.77773184211301</v>
+        <v>193.7777318421131</v>
       </c>
       <c r="K20">
-        <v>214.006798701713</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>214.0067987017126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7082,16 +7082,16 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>110.796505853719</v>
+        <v>110.69650585742211</v>
       </c>
       <c r="D21">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E21">
-        <v>110.796505936004</v>
+        <v>110.69650593600446</v>
       </c>
       <c r="F21">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>147.903652639364</v>
+        <v>147.90365263936405</v>
       </c>
       <c r="K21">
-        <v>111.43431849464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>111.43431849463981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -7117,16 +7117,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>111.41242550130799</v>
+        <v>111.3124255021385</v>
       </c>
       <c r="D22">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E22">
-        <v>111.41242551976799</v>
+        <v>111.31242551976766</v>
       </c>
       <c r="F22">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -7138,13 +7138,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>151.76503861775799</v>
+        <v>151.76503861775805</v>
       </c>
       <c r="K22">
-        <v>117.331567188625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117.33156718862534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -7152,16 +7152,16 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>111.66105836422</v>
+        <v>111.56105836463949</v>
       </c>
       <c r="D23">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E23">
-        <v>111.66105837353901</v>
+        <v>111.56105837353911</v>
       </c>
       <c r="F23">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -7173,13 +7173,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>153.497966929548</v>
+        <v>153.49796692954817</v>
       </c>
       <c r="K23">
-        <v>122.47560359706399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>122.47560359706443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -7187,16 +7187,16 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>111.776163376535</v>
+        <v>111.67616337679128</v>
       </c>
       <c r="D24">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E24">
-        <v>111.819526220752</v>
+        <v>111.71952622075162</v>
       </c>
       <c r="F24">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -7208,13 +7208,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>154.680270567262</v>
+        <v>154.68027056726217</v>
       </c>
       <c r="K24">
-        <v>127.354969897175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>127.35496989717504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -7222,16 +7222,16 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>111.86803916565999</v>
+        <v>111.76803916583474</v>
       </c>
       <c r="D25">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E25">
-        <v>111.936092581474</v>
+        <v>111.83609258147359</v>
       </c>
       <c r="F25">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -7243,13 +7243,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>155.60087095097001</v>
+        <v>155.60087095097003</v>
       </c>
       <c r="K25">
-        <v>132.079249245917</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>132.07924924591734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -7257,16 +7257,16 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>111.946168360058</v>
+        <v>111.84616836018603</v>
       </c>
       <c r="D26">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E26">
-        <v>112.028345103531</v>
+        <v>111.92834510353086</v>
       </c>
       <c r="F26">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -7278,13 +7278,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>156.36824568578999</v>
+        <v>156.3682456857905</v>
       </c>
       <c r="K26">
-        <v>136.69579195301</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>136.69579195300986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -7292,16 +7292,16 @@
         <v>19</v>
       </c>
       <c r="C27">
-        <v>112.01519789192101</v>
+        <v>111.91519789201791</v>
       </c>
       <c r="D27">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E27">
-        <v>112.104696808973</v>
+        <v>112.00469680897267</v>
       </c>
       <c r="F27">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -7313,13 +7313,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>157.035690469917</v>
+        <v>157.03569046991657</v>
       </c>
       <c r="K27">
-        <v>141.23058813369701</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141.23058813369667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -7327,16 +7327,16 @@
         <v>22</v>
       </c>
       <c r="C28">
-        <v>112.07779703762</v>
+        <v>111.97779703769544</v>
       </c>
       <c r="D28">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E28">
-        <v>112.16983156918999</v>
+        <v>112.06983156919023</v>
       </c>
       <c r="F28">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -7348,13 +7348,13 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>157.63377202552601</v>
+        <v>157.63377202552641</v>
       </c>
       <c r="K28">
-        <v>145.69990652864999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.69990652864965</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -7362,16 +7362,16 @@
         <v>25</v>
       </c>
       <c r="C29">
-        <v>112.135656123283</v>
+        <v>112.03565612334356</v>
       </c>
       <c r="D29">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E29">
-        <v>112.226626921736</v>
+        <v>112.12662692173556</v>
       </c>
       <c r="F29">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -7383,13 +7383,13 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>158.18201696844699</v>
+        <v>158.18201696844702</v>
       </c>
       <c r="K29">
-        <v>150.114822786036</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>150.11482278603589</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -7397,16 +7397,16 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>112.189924153243</v>
+        <v>112.08992415329195</v>
       </c>
       <c r="D30">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E30">
-        <v>112.27697795730199</v>
+        <v>112.1769779573023</v>
       </c>
       <c r="F30">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -7418,13 +7418,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>158.69404841148801</v>
+        <v>158.69404841148761</v>
       </c>
       <c r="K30">
-        <v>154.48333131946401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>154.48333131946438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -7432,16 +7432,16 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>112.241426618681</v>
+        <v>112.14142661872138</v>
       </c>
       <c r="D31">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E31">
-        <v>112.322199200692</v>
+        <v>112.22219920069179</v>
       </c>
       <c r="F31">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -7453,13 +7453,13 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>159.180215766353</v>
+        <v>159.18021576635292</v>
       </c>
       <c r="K31">
-        <v>158.81145677541201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>158.81145677541213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -7467,16 +7467,16 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>112.290784500399</v>
+        <v>112.19078450043172</v>
       </c>
       <c r="D32">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E32">
-        <v>112.363239933801</v>
+        <v>112.26323993380129</v>
       </c>
       <c r="F32">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -7488,13 +7488,13 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>159.649179820619</v>
+        <v>159.64917982061948</v>
       </c>
       <c r="K32">
-        <v>163.10389223111801</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>163.10389223111821</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -7502,16 +7502,16 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>112.338484203972</v>
+        <v>112.23848420399921</v>
       </c>
       <c r="D33">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E33">
-        <v>112.40080811030001</v>
+        <v>112.30080811030045</v>
       </c>
       <c r="F33">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -7523,13 +7523,13 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>160.10913579340399</v>
+        <v>160.10913579340396</v>
       </c>
       <c r="K33">
-        <v>167.36439064484901</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>167.36439064484867</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -7537,16 +7537,16 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>112.384921231134</v>
+        <v>112.28492123115622</v>
       </c>
       <c r="D34">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E34">
-        <v>112.435445804515</v>
+        <v>112.33544580451482</v>
       </c>
       <c r="F34">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -7558,13 +7558,13 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>160.569207776339</v>
+        <v>160.56920777633869</v>
       </c>
       <c r="K34">
-        <v>171.596017735083</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>171.59601773508317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -7572,16 +7572,16 @@
         <v>43</v>
       </c>
       <c r="C35">
-        <v>112.43042897829901</v>
+        <v>112.33042897831731</v>
       </c>
       <c r="D35">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E35">
-        <v>112.467577300557</v>
+        <v>112.36757730055697</v>
       </c>
       <c r="F35">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -7593,13 +7593,13 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>161.04198848680099</v>
+        <v>161.04198848680142</v>
       </c>
       <c r="K35">
-        <v>175.801322323607</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>175.80132232360671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -7607,16 +7607,16 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>112.475298774004</v>
+        <v>112.37529877401943</v>
       </c>
       <c r="D36">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E36">
-        <v>112.497540926437</v>
+        <v>112.3975409264369</v>
       </c>
       <c r="F36">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -7628,13 +7628,13 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>161.550892522765</v>
+        <v>161.5508925227648</v>
       </c>
       <c r="K36">
-        <v>179.98245511058701</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>179.9824551105869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -7642,16 +7642,16 @@
         <v>49</v>
       </c>
       <c r="C37">
-        <v>112.519794655724</v>
+        <v>112.41979465573594</v>
       </c>
       <c r="D37">
-        <v>112.534586713617</v>
+        <v>112.43458671361716</v>
       </c>
       <c r="E37">
-        <v>112.525610811074</v>
+        <v>112.42561081107375</v>
       </c>
       <c r="F37">
-        <v>111.661401474914</v>
+        <v>111.56140147491423</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -7663,10 +7663,10 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>162.17372108593599</v>
+        <v>162.17372108593597</v>
       </c>
       <c r="K37">
-        <v>184.14125392664701</v>
+        <v>184.14125392664658</v>
       </c>
     </row>
   </sheetData>
